--- a/Testdata/RegistrationForm.xlsx
+++ b/Testdata/RegistrationForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a63f205850e65031/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F7446D44-73AF-47B7-88C9-728E83C47D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDDAAD3-CD94-491F-91D7-AAA68342EBCA}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{0669E0CA-8E4B-4914-BED6-60C4E19A3857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775D96F1-45D3-42E8-BE2F-3FE550F52559}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A3640D8-E465-4403-BEC7-A796E0A8A02A}"/>
   </bookViews>
@@ -36,54 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>postal_code</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>date_of_demo</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>verification_code</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
     <t>Niraj</t>
   </si>
   <si>
@@ -115,6 +67,54 @@
   </si>
   <si>
     <t>200 automation street</t>
+  </si>
+  <si>
+    <t>${last_name}</t>
+  </si>
+  <si>
+    <t>${gender}</t>
+  </si>
+  <si>
+    <t>${first_name}</t>
+  </si>
+  <si>
+    <t>${course}</t>
+  </si>
+  <si>
+    <t>${address}</t>
+  </si>
+  <si>
+    <t>${city}</t>
+  </si>
+  <si>
+    <t>${state}</t>
+  </si>
+  <si>
+    <t>${country}</t>
+  </si>
+  <si>
+    <t>${postal_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${email}</t>
+  </si>
+  <si>
+    <t>${phone}</t>
+  </si>
+  <si>
+    <t>${date_of_demo}</t>
+  </si>
+  <si>
+    <t>${hour}</t>
+  </si>
+  <si>
+    <t>${minute}</t>
+  </si>
+  <si>
+    <t>${query}</t>
+  </si>
+  <si>
+    <t>${verification_code}</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31F5B4B-B215-4E20-9103-44A87A5B06C1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -544,91 +544,91 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>123456</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>9876543210</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P2">
         <v>33</v>
